--- a/filtros.xlsx
+++ b/filtros.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">ITEM</t>
   </si>
   <si>
+    <t xml:space="preserve">DESCRIÇÃO PADRÃO</t>
+  </si>
+  <si>
     <t xml:space="preserve">DESCRIÇÃO: DEVE CONTER</t>
   </si>
   <si>
@@ -43,28 +46,34 @@
     <t xml:space="preserve">item1</t>
   </si>
   <si>
-    <t xml:space="preserve">CANETA, MARCA-TEXTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1, P2</t>
+    <t xml:space="preserve">DESCRIÇÃO PADRÃO 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANETA; MARCA-TEXTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1; P2</t>
   </si>
   <si>
     <t xml:space="preserve">UNIDADE  </t>
   </si>
   <si>
-    <t xml:space="preserve">07/2020, 07/2021</t>
+    <t xml:space="preserve">07/2020; 07/2021</t>
   </si>
   <si>
     <t xml:space="preserve">item2</t>
   </si>
   <si>
-    <t xml:space="preserve">P3, P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDADE, CAIXA 12,0 UN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2020, 05/2021</t>
+    <t xml:space="preserve">DESCRIÇÃO PADRÃO 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3; P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDADE; CAIXA 12,0 UN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/2020; 05/2021</t>
   </si>
 </sst>
 </file>
@@ -79,6 +88,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,6 +109,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -239,19 +250,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="27.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -273,45 +284,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>279313</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>279313</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
+      <c r="G3" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/filtros.xlsx
+++ b/filtros.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">DESCRIÇÃO: DEVE CONTER</t>
   </si>
   <si>
-    <t xml:space="preserve">DESCRIÇÃO: NÃO DEVE CONTER </t>
+    <t xml:space="preserve">DESCRIÇÃO: NÃO DEVE CONTER</t>
   </si>
   <si>
     <t xml:space="preserve">UNIDADE DE FORNECIMENTO</t>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">DESCRIÇÃO PADRÃO 1</t>
   </si>
   <si>
-    <t xml:space="preserve">CANETA; MARCA-TEXTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1; P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDADE  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/2020; 07/2021</t>
+    <t xml:space="preserve">CANETA;MARCA-TEXTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1;P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/2020;07/2021</t>
   </si>
   <si>
     <t xml:space="preserve">item2</t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">DESCRIÇÃO PADRÃO 2</t>
   </si>
   <si>
-    <t xml:space="preserve">P3; P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDADE; CAIXA 12,0 UN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2020; 05/2021</t>
+    <t xml:space="preserve">P3;P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDADE;CAIXA 12,00 UN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/2020;05/2021</t>
   </si>
 </sst>
 </file>
@@ -253,15 +253,15 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="27.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.48"/>
   </cols>
   <sheetData>
@@ -327,9 +327,7 @@
       <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>279313</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="0" t="s">
         <v>17</v>
       </c>

--- a/filtros.xlsx
+++ b/filtros.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">ITEM</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">CANETA;MARCA-TEXTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1;P2</t>
   </si>
   <si>
     <t xml:space="preserve">UNIDADE</t>
@@ -253,10 +250,10 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="27.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.87"/>
@@ -298,38 +295,35 @@
       <c r="C2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>279313</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/filtros.xlsx
+++ b/filtros.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">ITEM</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t xml:space="preserve">10/2020;05/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRICAO CAMERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CÂMERA WEB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/2021;08/2021</t>
   </si>
 </sst>
 </file>
@@ -247,13 +259,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="27.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.87"/>
@@ -326,6 +338,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/filtros.xlsx
+++ b/filtros.xlsx
@@ -20,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">ITEM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">ITEM (NOME DO ARQUIVO)</t>
   </si>
   <si>
     <t xml:space="preserve">DESCRIÇÃO PADRÃO</t>
   </si>
   <si>
-    <t xml:space="preserve">DESCRIÇÃO: DEVE CONTER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIÇÃO: NÃO DEVE CONTER</t>
+    <t xml:space="preserve">DESCRIÇÃO: PALAVRA(S) OBRIGATÓRIA(S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIÇÃO: DEVE CONTER (MIN 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIÇÃO: PALAVRA(S) PROIBIDAS(S)</t>
   </si>
   <si>
     <t xml:space="preserve">UNIDADE DE FORNECIMENTO</t>
@@ -49,13 +52,13 @@
     <t xml:space="preserve">DESCRIÇÃO PADRÃO 1</t>
   </si>
   <si>
-    <t xml:space="preserve">CANETA;MARCA-TEXTO</t>
+    <t xml:space="preserve">CANETA | MARCA-TEXTO</t>
   </si>
   <si>
     <t xml:space="preserve">UNIDADE</t>
   </si>
   <si>
-    <t xml:space="preserve">07/2020;07/2021</t>
+    <t xml:space="preserve">07/2020 | 07/2021</t>
   </si>
   <si>
     <t xml:space="preserve">item2</t>
@@ -64,25 +67,22 @@
     <t xml:space="preserve">DESCRIÇÃO PADRÃO 2</t>
   </si>
   <si>
-    <t xml:space="preserve">P3;P4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDADE;CAIXA 12,00 UN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/2020;05/2021</t>
+    <t xml:space="preserve">P3 | P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/2020 | 05/2021</t>
   </si>
   <si>
     <t xml:space="preserve">camera</t>
   </si>
   <si>
-    <t xml:space="preserve">DESCRICAO CAMERA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CÂMERA WEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/2021;08/2021</t>
+    <t xml:space="preserve">DESCRIÇÃO CÂMERA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camera web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/2021 | 08/2021</t>
   </si>
 </sst>
 </file>
@@ -259,19 +259,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -296,45 +299,45 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>279313</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>11</v>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -348,10 +351,7 @@
       <c r="C4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>20</v>
       </c>
     </row>

--- a/filtros.xlsx
+++ b/filtros.xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">DESCRIÇÃO CÂMERA</t>
   </si>
   <si>
-    <t xml:space="preserve">Camera web</t>
+    <t xml:space="preserve">Windows 7 | Windows 10</t>
   </si>
   <si>
     <t xml:space="preserve">03/2021 | 08/2021</t>
@@ -262,10 +262,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.71"/>
@@ -348,7 +348,7 @@
       <c r="B4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="0" t="s">

--- a/filtros.xlsx
+++ b/filtros.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">ITEM (NOME DO ARQUIVO)</t>
   </si>
@@ -52,21 +52,27 @@
     <t xml:space="preserve">DESCRIÇÃO PADRÃO 1</t>
   </si>
   <si>
+    <t xml:space="preserve">CANETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marca texto | marca-texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/2020 | 07/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIÇÃO PADRÃO 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">CANETA | MARCA-TEXTO</t>
   </si>
   <si>
-    <t xml:space="preserve">UNIDADE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/2020 | 07/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DESCRIÇÃO PADRÃO 2</t>
-  </si>
-  <si>
     <t xml:space="preserve">P3 | P4</t>
   </si>
   <si>
@@ -79,7 +85,7 @@
     <t xml:space="preserve">DESCRIÇÃO CÂMERA</t>
   </si>
   <si>
-    <t xml:space="preserve">Windows 7 | Windows 10</t>
+    <t xml:space="preserve">404652 | 150109 | 474995</t>
   </si>
   <si>
     <t xml:space="preserve">03/2021 | 08/2021</t>
@@ -92,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,12 +119,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -169,16 +169,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,97 +266,104 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="40.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="24.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>279313</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>12</v>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
